--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.840954666666667</v>
+        <v>3.070536666666667</v>
       </c>
       <c r="H2">
-        <v>5.522864</v>
+        <v>9.21161</v>
       </c>
       <c r="I2">
-        <v>0.1665577163991766</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="J2">
-        <v>0.1665577163991765</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N2">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O2">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P2">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q2">
-        <v>21.80237395695111</v>
+        <v>38.61976908812444</v>
       </c>
       <c r="R2">
-        <v>196.22136561256</v>
+        <v>347.57792179312</v>
       </c>
       <c r="S2">
-        <v>0.02001203332583712</v>
+        <v>0.02957375247517879</v>
       </c>
       <c r="T2">
-        <v>0.02001203332583712</v>
+        <v>0.02957375247517879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.840954666666667</v>
+        <v>3.070536666666667</v>
       </c>
       <c r="H3">
-        <v>5.522864</v>
+        <v>9.21161</v>
       </c>
       <c r="I3">
-        <v>0.1665577163991766</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="J3">
-        <v>0.1665577163991765</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.821884</v>
       </c>
       <c r="O3">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P3">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q3">
-        <v>20.141200172864</v>
+        <v>33.59359943036</v>
       </c>
       <c r="R3">
-        <v>181.270801555776</v>
+        <v>302.34239487324</v>
       </c>
       <c r="S3">
-        <v>0.01848726977518903</v>
+        <v>0.02572487660495286</v>
       </c>
       <c r="T3">
-        <v>0.01848726977518903</v>
+        <v>0.02572487660495285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.840954666666667</v>
+        <v>3.070536666666667</v>
       </c>
       <c r="H4">
-        <v>5.522864</v>
+        <v>9.21161</v>
       </c>
       <c r="I4">
-        <v>0.1665577163991766</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="J4">
-        <v>0.1665577163991765</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N4">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O4">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P4">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q4">
-        <v>4.626508082012444</v>
+        <v>7.738502634458889</v>
       </c>
       <c r="R4">
-        <v>41.638572738112</v>
+        <v>69.64652371013</v>
       </c>
       <c r="S4">
-        <v>0.004246594159989137</v>
+        <v>0.005925891501779576</v>
       </c>
       <c r="T4">
-        <v>0.004246594159989137</v>
+        <v>0.005925891501779575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.840954666666667</v>
+        <v>3.070536666666667</v>
       </c>
       <c r="H5">
-        <v>5.522864</v>
+        <v>9.21161</v>
       </c>
       <c r="I5">
-        <v>0.1665577163991766</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="J5">
-        <v>0.1665577163991765</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N5">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O5">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P5">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q5">
-        <v>134.8884212408071</v>
+        <v>213.2431084068745</v>
       </c>
       <c r="R5">
-        <v>1213.995791167264</v>
+        <v>1919.18797566187</v>
       </c>
       <c r="S5">
-        <v>0.1238118191381613</v>
+        <v>0.1632945782423603</v>
       </c>
       <c r="T5">
-        <v>0.1238118191381612</v>
+        <v>0.1632945782423602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.699405</v>
       </c>
       <c r="I6">
-        <v>0.3528289271705964</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="J6">
-        <v>0.3528289271705963</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N6">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O6">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P6">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q6">
-        <v>46.18524064395277</v>
+        <v>49.04987505641778</v>
       </c>
       <c r="R6">
-        <v>415.667165795575</v>
+        <v>441.44887550776</v>
       </c>
       <c r="S6">
-        <v>0.04239265764148194</v>
+        <v>0.03756078552792282</v>
       </c>
       <c r="T6">
-        <v>0.04239265764148194</v>
+        <v>0.03756078552792282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.699405</v>
       </c>
       <c r="I7">
-        <v>0.3528289271705964</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="J7">
-        <v>0.3528289271705963</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>32.821884</v>
       </c>
       <c r="O7">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P7">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q7">
         <v>42.66627930878</v>
@@ -883,10 +883,10 @@
         <v>383.99651377902</v>
       </c>
       <c r="S7">
-        <v>0.03916266206160345</v>
+        <v>0.03267243728038512</v>
       </c>
       <c r="T7">
-        <v>0.03916266206160345</v>
+        <v>0.03267243728038512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.699405</v>
       </c>
       <c r="I8">
-        <v>0.3528289271705964</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="J8">
-        <v>0.3528289271705963</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N8">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O8">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P8">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q8">
-        <v>9.80060196797111</v>
+        <v>9.828453051540556</v>
       </c>
       <c r="R8">
-        <v>88.20541771174</v>
+        <v>88.456077463865</v>
       </c>
       <c r="S8">
-        <v>0.008995808143808667</v>
+        <v>0.007526306982750841</v>
       </c>
       <c r="T8">
-        <v>0.008995808143808667</v>
+        <v>0.007526306982750841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.699405</v>
       </c>
       <c r="I9">
-        <v>0.3528289271705964</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="J9">
-        <v>0.3528289271705963</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N9">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O9">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P9">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q9">
-        <v>285.7420117364478</v>
+        <v>270.8340332157928</v>
       </c>
       <c r="R9">
-        <v>2571.67810562803</v>
+        <v>2437.506298942135</v>
       </c>
       <c r="S9">
-        <v>0.2622777993237023</v>
+        <v>0.2073958195322599</v>
       </c>
       <c r="T9">
-        <v>0.2622777993237023</v>
+        <v>0.2073958195322599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.359506666666666</v>
+        <v>3.959514</v>
       </c>
       <c r="H10">
-        <v>7.078519999999999</v>
+        <v>11.878542</v>
       </c>
       <c r="I10">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="J10">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N10">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O10">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P10">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q10">
-        <v>27.94357060064444</v>
+        <v>49.800908760096</v>
       </c>
       <c r="R10">
-        <v>251.4921354058</v>
+        <v>448.2081788408639</v>
       </c>
       <c r="S10">
-        <v>0.02564893470807983</v>
+        <v>0.03813590250499264</v>
       </c>
       <c r="T10">
-        <v>0.02564893470807983</v>
+        <v>0.03813590250499264</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.359506666666666</v>
+        <v>3.959514</v>
       </c>
       <c r="H11">
-        <v>7.078519999999999</v>
+        <v>11.878542</v>
       </c>
       <c r="I11">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="J11">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.821884</v>
       </c>
       <c r="O11">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P11">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q11">
-        <v>25.81448470351999</v>
+        <v>43.31956973479199</v>
       </c>
       <c r="R11">
-        <v>232.33036233168</v>
+        <v>389.8761276131279</v>
       </c>
       <c r="S11">
-        <v>0.02369468247798082</v>
+        <v>0.03317270566130675</v>
       </c>
       <c r="T11">
-        <v>0.02369468247798082</v>
+        <v>0.03317270566130675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.359506666666666</v>
+        <v>3.959514</v>
       </c>
       <c r="H12">
-        <v>7.078519999999999</v>
+        <v>11.878542</v>
       </c>
       <c r="I12">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="J12">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N12">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O12">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P12">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q12">
-        <v>5.929682496017776</v>
+        <v>9.978942721254001</v>
       </c>
       <c r="R12">
-        <v>53.36714246415999</v>
+        <v>89.81048449128599</v>
       </c>
       <c r="S12">
-        <v>0.005442756094187056</v>
+        <v>0.007641547035896196</v>
       </c>
       <c r="T12">
-        <v>0.005442756094187056</v>
+        <v>0.007641547035896196</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.359506666666666</v>
+        <v>3.959514</v>
       </c>
       <c r="H13">
-        <v>7.078519999999999</v>
+        <v>11.878542</v>
       </c>
       <c r="I13">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="J13">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N13">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O13">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P13">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q13">
-        <v>172.8831974717244</v>
+        <v>274.980944636346</v>
       </c>
       <c r="R13">
-        <v>1555.94877724552</v>
+        <v>2474.828501727114</v>
       </c>
       <c r="S13">
-        <v>0.1586865868878642</v>
+        <v>0.2105713882832819</v>
       </c>
       <c r="T13">
-        <v>0.1586865868878642</v>
+        <v>0.2105713882832819</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.952690333333333</v>
+        <v>2.746207666666667</v>
       </c>
       <c r="H14">
-        <v>8.858071000000001</v>
+        <v>8.238623</v>
       </c>
       <c r="I14">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="J14">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N14">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O14">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P14">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q14">
-        <v>34.96862795810722</v>
+        <v>34.54051114453511</v>
       </c>
       <c r="R14">
-        <v>314.717651622965</v>
+        <v>310.864600300816</v>
       </c>
       <c r="S14">
-        <v>0.03209711701295404</v>
+        <v>0.02644999053784463</v>
       </c>
       <c r="T14">
-        <v>0.03209711701295404</v>
+        <v>0.02644999053784463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.952690333333333</v>
+        <v>2.746207666666667</v>
       </c>
       <c r="H15">
-        <v>8.858071000000001</v>
+        <v>8.238623</v>
       </c>
       <c r="I15">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="J15">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.821884</v>
       </c>
       <c r="O15">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P15">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q15">
-        <v>32.304286536196</v>
+        <v>30.045236491748</v>
       </c>
       <c r="R15">
-        <v>290.738578825764</v>
+        <v>270.407128425732</v>
       </c>
       <c r="S15">
-        <v>0.02965156271542781</v>
+        <v>0.02300765664956794</v>
       </c>
       <c r="T15">
-        <v>0.02965156271542781</v>
+        <v>0.02300765664956794</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.952690333333333</v>
+        <v>2.746207666666667</v>
       </c>
       <c r="H16">
-        <v>8.858071000000001</v>
+        <v>8.238623</v>
       </c>
       <c r="I16">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="J16">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N16">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O16">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P16">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q16">
-        <v>7.420413950540888</v>
+        <v>6.921114310073222</v>
       </c>
       <c r="R16">
-        <v>66.783725554868</v>
+        <v>62.290028790659</v>
       </c>
       <c r="S16">
-        <v>0.006811073489654848</v>
+        <v>0.005299962332541842</v>
       </c>
       <c r="T16">
-        <v>0.006811073489654849</v>
+        <v>0.005299962332541842</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.952690333333333</v>
+        <v>2.746207666666667</v>
       </c>
       <c r="H17">
-        <v>8.858071000000001</v>
+        <v>8.238623</v>
       </c>
       <c r="I17">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="J17">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N17">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O17">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P17">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q17">
-        <v>216.3463037346162</v>
+        <v>190.7190575276601</v>
       </c>
       <c r="R17">
-        <v>1947.116733611546</v>
+        <v>1716.471517748941</v>
       </c>
       <c r="S17">
-        <v>0.1985806430440785</v>
+        <v>0.1460463988469778</v>
       </c>
       <c r="T17">
-        <v>0.1985806430440785</v>
+        <v>0.1460463988469778</v>
       </c>
     </row>
   </sheetData>
